--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +523,100 @@
       <c r="A11" t="str">
         <v>3</v>
       </c>
+      <c r="C11" t="str">
+        <v>556_马尾松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F11" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>342_南天竹红_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>343_南天竹带果_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F16" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F17" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <v>475_诺贝松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01611121010161410100</v>
+        <v>016111210101614101030101010305040105200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -613,6 +613,9 @@
       <c r="C21" t="str">
         <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105200</v>
+        <v>016111210101614101030101010305040105201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,12 +614,94 @@
         <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>6</v>
+      </c>
+      <c r="C24" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>616_康乃馨紫精灵_Purple Elves_undefined_20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201</v>
+        <v>016111210101614101030101010305040105201010101515102010350</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -698,6 +698,9 @@
       <c r="C31" t="str">
         <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -759,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201010101515102010350</v>
+        <v>016111210101614101030101010305040105201010101515102010355</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -702,9 +702,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>7</v>
+      </c>
+      <c r="C36" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201010101515102010355</v>
+        <v>016111210101614101030101010305040105201010101515102010355515151020151010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -782,6 +782,9 @@
       <c r="C41" t="str">
         <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -843,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201010101515102010355515151020151010100</v>
+        <v>016111210101614101030101010305040105201010101515102010355515151020151010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,12 +783,189 @@
         <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
       </c>
       <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8</v>
+      </c>
+      <c r="C42" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>9</v>
+      </c>
+      <c r="C49" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>10</v>
+      </c>
+      <c r="C50" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>395_豌豆花 混色_sweetpea mix colors_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>11</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>12</v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
         <v>1</v>
+      </c>
+      <c r="C56" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -846,7 +1023,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201010101515102010355515151020151010101</v>
+        <v>016111210101614101030101010305040105201010101515102010355515151020151010101515105101010154091010261010131781050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,10 +962,178 @@
       <c r="A61" t="str">
         <v>2</v>
       </c>
+      <c r="C61" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F61" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>3</v>
+      </c>
+      <c r="C70" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>359_蓝梦叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F80" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1023,7 +1191,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201010101515102010355515151020151010101515105101010154091010261010131781050</v>
+        <v>0161112101016141010301010103050401052010101015151020103555151510201510101015151051010101540910102610101317810520711555551053535108555150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -1130,6 +1130,9 @@
       <c r="C81" t="str">
         <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1191,7 +1194,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0161112101016141010301010103050401052010101015151020103555151510201510101015151051010101540910102610101317810520711555551053535108555150</v>
+        <v>0161112101016141010301010103050401052010101015151020103555151510201510101015151051010101540910102610101317810520711555551053535108555155</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,9 +1134,68 @@
         <v>5</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>4</v>
+      </c>
+      <c r="C82" t="str">
+        <v>698_舞竹_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>810_鸡冠花红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L88"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1194,7 +1253,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0161112101016141010301010103050401052010101015151020103555151510201510101015151051010101540910102610101317810520711555551053535108555155</v>
+        <v>016111210101614101030101010305040105201010101515102010355515151020151010101515105101010154091010261010131781052071155555105353510855515535555103</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -1255,6 +1255,9 @@
       <c r="G2" t="str">
         <v>016111210101614101030101010305040105201010101515102010355515151020151010101515105101010154091010261010131781052071155555105353510855515535555103</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,31 +449,28 @@
         <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>2</v>
-      </c>
       <c r="C5" t="str">
-        <v>278_红雷丝_undefined_Rosa rugosa Thunb._10stems</v>
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
       </c>
       <c r="F5" t="str">
         <v>10</v>
@@ -481,18 +478,21 @@
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
       </c>
       <c r="F6" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>2</v>
+      </c>
       <c r="C7" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F7" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -500,51 +500,47 @@
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F8" t="str">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F9" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+        <v>215_水瓶座_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F10" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="C11" t="str">
+        <v>621_康乃馨桃红_undefined_undefined_20stems</v>
+      </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F12" t="str">
         <v>3</v>
-      </c>
-      <c r="C11" t="str">
-        <v>556_马尾松_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F11" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="C12" t="str" xml:space="preserve">
-        <v xml:space="preserve">345_天竺少女_Cryptomeria
-Kashiwaba_undefined_1bunch</v>
-      </c>
-      <c r="F12" t="str">
-        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="str">
-        <v>342_南天竹红_undefined_Nandina domestica Thunb._1bunch</v>
+        <v>556_马尾松_undefined_undefined_1bunch</v>
       </c>
       <c r="F13" t="str">
         <v>10</v>
@@ -552,7 +548,7 @@
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>343_南天竹带果_undefined_Nandina domestica Thunb._1bunch</v>
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F14" t="str">
         <v>10</v>
@@ -560,642 +556,147 @@
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
       </c>
       <c r="F15" t="str">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
       </c>
       <c r="F16" t="str">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+        <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
       <c r="F17" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">740_袋鼠爪橙_Kangaroo Paw
+red /green /orange / yellow_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>624_多丁白_undefined_undefined_1bunch</v>
+        <v>121_绣球鲜红_Hydrangea_Hydrangea L._1stem</v>
       </c>
       <c r="F19" t="str">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>5</v>
-      </c>
       <c r="C20" t="str">
-        <v>475_诺贝松_undefined_undefined_1bunch</v>
+        <v>343_南天竹带果_undefined_Nandina domestica Thunb._1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F22" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>6</v>
-      </c>
       <c r="C24" t="str">
-        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
       <c r="F24" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>602_康乃馨白_white_undefined_20stems</v>
+        <v>640_红辣椒_undefined_undefined_1bunch</v>
       </c>
       <c r="F25" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
-pink_Trachymene Coerulea_1bunch</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>4</v>
+      </c>
+      <c r="C26" t="str">
+        <v>475_诺贝松_undefined_undefined_1bunch</v>
       </c>
       <c r="F26" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>723_莲花果_undefined_undefined_1bunch</v>
       </c>
       <c r="F27" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="str">
+        <v>5</v>
+      </c>
       <c r="C28" t="str">
-        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F28" t="str">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>215_水瓶座_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F29" t="str">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
-        <v>616_康乃馨紫精灵_Purple Elves_undefined_20stems</v>
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F30" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F31" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F32" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
-      </c>
-      <c r="F33" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F34" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
-      </c>
-      <c r="F35" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>7</v>
-      </c>
-      <c r="C36" t="str">
-        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F37" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
-      </c>
-      <c r="F38" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="C39" t="str" xml:space="preserve">
-        <v xml:space="preserve">463_玉兰枝_magnolia flower
-white/purple_undefined_1bunch</v>
-      </c>
-      <c r="F39" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F40" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F41" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>8</v>
-      </c>
-      <c r="C42" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F42" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F43" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="str">
-        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F44" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="str">
-        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F45" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F46" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
-      </c>
-      <c r="F47" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
-      </c>
-      <c r="F48" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>9</v>
-      </c>
-      <c r="C49" t="str">
-        <v>721_银扇干花_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F49" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>10</v>
-      </c>
-      <c r="C50" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
-      </c>
-      <c r="F50" t="str">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
-      </c>
-      <c r="F51" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
-      </c>
-      <c r="F52" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="str">
-        <v>395_豌豆花 混色_sweetpea mix colors_undefined_1bunch</v>
-      </c>
-      <c r="F53" t="str">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" xml:space="preserve">
-      <c r="A54" t="str">
-        <v>11</v>
-      </c>
-      <c r="C54" t="str" xml:space="preserve">
-        <v xml:space="preserve">373_龙柳_Salix
-_undefined_1bunch</v>
-      </c>
-      <c r="F54" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" xml:space="preserve">
-      <c r="A55" t="str">
-        <v>12</v>
-      </c>
-      <c r="C55" t="str" xml:space="preserve">
-        <v xml:space="preserve">373_龙柳_Salix
-_undefined_1bunch</v>
-      </c>
-      <c r="F55" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>1</v>
-      </c>
-      <c r="C56" t="str">
-        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F56" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="str">
-        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F57" t="str">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="str">
-        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F58" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F59" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="str">
-        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
-      </c>
-      <c r="F60" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>2</v>
-      </c>
-      <c r="C61" t="str">
-        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F61" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="str">
-        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F62" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="str">
-        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F63" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="str">
-        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F64" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="str">
-        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F65" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="str">
-        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
-      </c>
-      <c r="F66" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="str">
-        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
-      </c>
-      <c r="F67" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="str">
-        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
-      </c>
-      <c r="F68" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="str">
-        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
-      </c>
-      <c r="F69" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>3</v>
-      </c>
-      <c r="C70" t="str">
-        <v>327_文竹_asparagus fern_undefined_1bunch</v>
-      </c>
-      <c r="F70" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" t="str">
-        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
-      </c>
-      <c r="F71" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
-      <c r="C72" t="str" xml:space="preserve">
-        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
-green_undefined_1bunch</v>
-      </c>
-      <c r="F72" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="str">
-        <v>557_山茶花_camellia_undefined_1bunch</v>
-      </c>
-      <c r="F73" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" t="str">
-        <v>431_小米果_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F74" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="C75" t="str">
-        <v>816_山里红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F75" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" t="str">
-        <v>816_山里红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F76" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" t="str">
-        <v>359_蓝梦叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F77" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" xml:space="preserve">
-      <c r="C78" t="str" xml:space="preserve">
-        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
-（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
-      </c>
-      <c r="F78" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
-      </c>
-      <c r="F79" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="C80" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F80" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" t="str">
-        <v>348_万年青_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F81" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>4</v>
-      </c>
-      <c r="C82" t="str">
-        <v>698_舞竹_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F82" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="C83" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
-      </c>
-      <c r="F83" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="C84" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
-      </c>
-      <c r="F84" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="str">
-        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
-      </c>
-      <c r="F85" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="C86" t="str">
-        <v>653_大丽花 黑_undefined_undefined_5stems</v>
-      </c>
-      <c r="F86" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="str">
-        <v>810_鸡冠花红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F87" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="C88" t="str">
-        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
-      </c>
-      <c r="F88" t="str">
-        <v>3</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L88"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1253,10 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016111210101614101030101010305040105201010101515102010355515151020151010101515105101010154091010261010131781052071155555105353510855515535555103</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>01581410515194153101055305151015151055303068100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -693,6 +693,9 @@
       <c r="C31" t="str">
         <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
+      <c r="F31" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -754,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01581410515194153101055305151015151055303068100</v>
+        <v>01581410515194153101055305151015151055303068107</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,9 +697,146 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>6</v>
+      </c>
+      <c r="C32" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>640_红辣椒_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>113_绣球安娜绿_Hydrangea Anna Green_Hydrangea L._1stem</v>
+      </c>
+      <c r="F47" t="str">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L47"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -757,7 +894,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01581410515194153101055305151015151055303068107</v>
+        <v>015814105151941531010553051510151510553030681071151010510101310102010563040</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-20.xlsx
@@ -896,6 +896,9 @@
       <c r="G2" t="str">
         <v>015814105151941531010553051510151510553030681071151010510101310102010563040</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
